--- a/database/industries/siman/silam/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/siman/silam/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38435FCE-C5D6-44C9-A97B-507D9C957F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310AECDD-1817-4542-95DC-85700384AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/04</t>
-  </si>
-  <si>
-    <t>9 ماهه منتهی به 1399/07</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1399/10</t>
   </si>
   <si>
@@ -67,15 +61,15 @@
     <t>9 ماهه منتهی به 1401/07</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1402/01</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-06-07 (3)</t>
-  </si>
-  <si>
-    <t>1400-09-01 (2)</t>
-  </si>
-  <si>
     <t>1401-02-25 (8)</t>
   </si>
   <si>
@@ -88,16 +82,19 @@
     <t>1401-10-05 (3)</t>
   </si>
   <si>
-    <t>1401-10-05 (8)</t>
-  </si>
-  <si>
-    <t>1401-03-02 (2)</t>
+    <t>1402-02-24 (10)</t>
+  </si>
+  <si>
+    <t>1402-02-30 (3)</t>
   </si>
   <si>
     <t>1401-07-26 (2)</t>
   </si>
   <si>
     <t>1401-10-05 (2)</t>
+  </si>
+  <si>
+    <t>1402-02-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,18 +616,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +642,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +658,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +674,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +688,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +704,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +720,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +734,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -802,13 +800,13 @@
         <v>23</v>
       </c>
       <c r="L9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,153 +820,153 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>740553</v>
+        <v>1782149</v>
       </c>
       <c r="E11" s="13">
-        <v>1229625</v>
+        <v>685462</v>
       </c>
       <c r="F11" s="13">
-        <v>1782149</v>
+        <v>1676234</v>
       </c>
       <c r="G11" s="13">
-        <v>685462</v>
+        <v>2460757</v>
       </c>
       <c r="H11" s="13">
-        <v>1676234</v>
+        <v>3539419</v>
       </c>
       <c r="I11" s="13">
-        <v>2460757</v>
+        <v>1130029</v>
       </c>
       <c r="J11" s="13">
-        <v>3539419</v>
+        <v>3046184</v>
       </c>
       <c r="K11" s="13">
-        <v>1130029</v>
+        <v>4498312</v>
       </c>
       <c r="L11" s="13">
-        <v>3046184</v>
+        <v>6300588</v>
       </c>
       <c r="M11" s="13">
-        <v>4498312</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1655985</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-583993</v>
+        <v>-1391471</v>
       </c>
       <c r="E12" s="11">
-        <v>-953650</v>
+        <v>-447999</v>
       </c>
       <c r="F12" s="11">
-        <v>-1391471</v>
+        <v>-1169781</v>
       </c>
       <c r="G12" s="11">
-        <v>-447999</v>
+        <v>-1632225</v>
       </c>
       <c r="H12" s="11">
-        <v>-1169781</v>
+        <v>-2416864</v>
       </c>
       <c r="I12" s="11">
-        <v>-1632225</v>
+        <v>-715419</v>
       </c>
       <c r="J12" s="11">
-        <v>-2416864</v>
+        <v>-1749240</v>
       </c>
       <c r="K12" s="11">
-        <v>-715419</v>
+        <v>-2496337</v>
       </c>
       <c r="L12" s="11">
-        <v>-1749240</v>
+        <v>-4040455</v>
       </c>
       <c r="M12" s="11">
-        <v>-2496337</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-961093</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>156560</v>
+        <v>390678</v>
       </c>
       <c r="E13" s="15">
-        <v>275975</v>
+        <v>237463</v>
       </c>
       <c r="F13" s="15">
-        <v>390678</v>
+        <v>506453</v>
       </c>
       <c r="G13" s="15">
-        <v>237463</v>
+        <v>828532</v>
       </c>
       <c r="H13" s="15">
-        <v>506453</v>
+        <v>1122555</v>
       </c>
       <c r="I13" s="15">
-        <v>828532</v>
+        <v>414610</v>
       </c>
       <c r="J13" s="15">
-        <v>1122555</v>
+        <v>1296944</v>
       </c>
       <c r="K13" s="15">
-        <v>414610</v>
+        <v>2001975</v>
       </c>
       <c r="L13" s="15">
-        <v>1296944</v>
+        <v>2260133</v>
       </c>
       <c r="M13" s="15">
-        <v>2001975</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>694892</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-172836</v>
+        <v>-188067</v>
       </c>
       <c r="E14" s="11">
-        <v>-165362</v>
+        <v>-75315</v>
       </c>
       <c r="F14" s="11">
-        <v>-188067</v>
+        <v>-227382</v>
       </c>
       <c r="G14" s="11">
-        <v>-75315</v>
+        <v>-528987</v>
       </c>
       <c r="H14" s="11">
-        <v>-227382</v>
+        <v>-383389</v>
       </c>
       <c r="I14" s="11">
-        <v>-528987</v>
+        <v>-213580</v>
       </c>
       <c r="J14" s="11">
-        <v>-383389</v>
+        <v>-376120</v>
       </c>
       <c r="K14" s="11">
-        <v>-213580</v>
+        <v>-550507</v>
       </c>
       <c r="L14" s="11">
-        <v>-376120</v>
+        <v>-860439</v>
       </c>
       <c r="M14" s="11">
-        <v>-550507</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-269923</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -978,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="13">
-        <v>-93479</v>
+        <v>0</v>
       </c>
       <c r="G15" s="13">
         <v>0</v>
       </c>
       <c r="H15" s="13">
-        <v>0</v>
+        <v>-80283</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
       </c>
       <c r="J15" s="13">
-        <v>-80283</v>
+        <v>0</v>
       </c>
       <c r="K15" s="13">
         <v>0</v>
@@ -1002,261 +1000,261 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>16550</v>
+        <v>-41754</v>
       </c>
       <c r="E16" s="11">
-        <v>-37217</v>
+        <v>-11911</v>
       </c>
       <c r="F16" s="11">
-        <v>-41754</v>
+        <v>-31373</v>
       </c>
       <c r="G16" s="11">
-        <v>-11911</v>
+        <v>-19666</v>
       </c>
       <c r="H16" s="11">
-        <v>-31373</v>
+        <v>-13914</v>
       </c>
       <c r="I16" s="11">
-        <v>-19666</v>
+        <v>16311</v>
       </c>
       <c r="J16" s="11">
-        <v>-13914</v>
+        <v>-63820</v>
       </c>
       <c r="K16" s="11">
-        <v>16311</v>
+        <v>8355</v>
       </c>
       <c r="L16" s="11">
-        <v>-63820</v>
+        <v>-58969</v>
       </c>
       <c r="M16" s="11">
-        <v>8355</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-82807</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>-93205</v>
+        <v>67378</v>
       </c>
       <c r="E17" s="15">
-        <v>73396</v>
+        <v>150237</v>
       </c>
       <c r="F17" s="15">
-        <v>67378</v>
+        <v>247698</v>
       </c>
       <c r="G17" s="15">
-        <v>150237</v>
+        <v>279879</v>
       </c>
       <c r="H17" s="15">
-        <v>247698</v>
+        <v>644969</v>
       </c>
       <c r="I17" s="15">
-        <v>279879</v>
+        <v>217341</v>
       </c>
       <c r="J17" s="15">
-        <v>644969</v>
+        <v>857004</v>
       </c>
       <c r="K17" s="15">
-        <v>217341</v>
+        <v>1459823</v>
       </c>
       <c r="L17" s="15">
-        <v>857004</v>
+        <v>1340725</v>
       </c>
       <c r="M17" s="15">
-        <v>1459823</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>342162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-31119</v>
+        <v>-78045</v>
       </c>
       <c r="E18" s="11">
-        <v>-50336</v>
+        <v>-35678</v>
       </c>
       <c r="F18" s="11">
-        <v>-78045</v>
+        <v>-103465</v>
       </c>
       <c r="G18" s="11">
-        <v>-35678</v>
+        <v>-147047</v>
       </c>
       <c r="H18" s="11">
-        <v>-103465</v>
+        <v>-163422</v>
       </c>
       <c r="I18" s="11">
-        <v>-147047</v>
+        <v>-17846</v>
       </c>
       <c r="J18" s="11">
-        <v>-163422</v>
+        <v>-22344</v>
       </c>
       <c r="K18" s="11">
-        <v>-17846</v>
+        <v>-28504</v>
       </c>
       <c r="L18" s="11">
-        <v>-22344</v>
+        <v>-40103</v>
       </c>
       <c r="M18" s="11">
-        <v>-28504</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-13734</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>2458</v>
+        <v>49793</v>
       </c>
       <c r="E19" s="13">
-        <v>-11777</v>
+        <v>4034</v>
       </c>
       <c r="F19" s="13">
-        <v>49793</v>
+        <v>-524</v>
       </c>
       <c r="G19" s="13">
-        <v>4034</v>
+        <v>-463</v>
       </c>
       <c r="H19" s="13">
-        <v>-524</v>
+        <v>-6812</v>
       </c>
       <c r="I19" s="13">
-        <v>-463</v>
+        <v>0</v>
       </c>
       <c r="J19" s="13">
-        <v>-6812</v>
+        <v>82492</v>
       </c>
       <c r="K19" s="13">
-        <v>-2561</v>
+        <v>28850</v>
       </c>
       <c r="L19" s="13">
-        <v>82492</v>
+        <v>156252</v>
       </c>
       <c r="M19" s="13">
-        <v>28850</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>22468</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>-121866</v>
+        <v>39126</v>
       </c>
       <c r="E20" s="17">
-        <v>11283</v>
+        <v>118593</v>
       </c>
       <c r="F20" s="17">
-        <v>39126</v>
+        <v>143709</v>
       </c>
       <c r="G20" s="17">
-        <v>118593</v>
+        <v>132369</v>
       </c>
       <c r="H20" s="17">
-        <v>143709</v>
+        <v>474735</v>
       </c>
       <c r="I20" s="17">
-        <v>132369</v>
+        <v>199495</v>
       </c>
       <c r="J20" s="17">
-        <v>474735</v>
+        <v>917152</v>
       </c>
       <c r="K20" s="17">
-        <v>196934</v>
+        <v>1460169</v>
       </c>
       <c r="L20" s="17">
-        <v>917152</v>
+        <v>1456874</v>
       </c>
       <c r="M20" s="17">
-        <v>1460169</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>350896</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-9410</v>
+        <v>-15968</v>
       </c>
       <c r="E21" s="13">
-        <v>-3165</v>
+        <v>-26724</v>
       </c>
       <c r="F21" s="13">
-        <v>-15968</v>
+        <v>-141656</v>
       </c>
       <c r="G21" s="13">
-        <v>-26724</v>
+        <v>-126656</v>
       </c>
       <c r="H21" s="13">
-        <v>-141656</v>
+        <v>-153364</v>
       </c>
       <c r="I21" s="13">
-        <v>-126656</v>
+        <v>-11826</v>
       </c>
       <c r="J21" s="13">
-        <v>-153364</v>
+        <v>-115477</v>
       </c>
       <c r="K21" s="13">
-        <v>-11826</v>
+        <v>-255529</v>
       </c>
       <c r="L21" s="13">
-        <v>-115477</v>
+        <v>-297855</v>
       </c>
       <c r="M21" s="13">
-        <v>-255529</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-45616</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>-131276</v>
+        <v>23158</v>
       </c>
       <c r="E22" s="17">
-        <v>8118</v>
+        <v>91869</v>
       </c>
       <c r="F22" s="17">
-        <v>23158</v>
+        <v>2053</v>
       </c>
       <c r="G22" s="17">
-        <v>91869</v>
+        <v>5713</v>
       </c>
       <c r="H22" s="17">
-        <v>2053</v>
+        <v>321371</v>
       </c>
       <c r="I22" s="17">
-        <v>5713</v>
+        <v>187669</v>
       </c>
       <c r="J22" s="17">
-        <v>321371</v>
+        <v>801675</v>
       </c>
       <c r="K22" s="17">
-        <v>185108</v>
+        <v>1204640</v>
       </c>
       <c r="L22" s="17">
-        <v>801675</v>
+        <v>1159019</v>
       </c>
       <c r="M22" s="17">
-        <v>1204640</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>305280</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1290,81 +1288,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>-131276</v>
+        <v>23158</v>
       </c>
       <c r="E24" s="17">
-        <v>8118</v>
+        <v>91869</v>
       </c>
       <c r="F24" s="17">
-        <v>23158</v>
+        <v>2053</v>
       </c>
       <c r="G24" s="17">
-        <v>91869</v>
+        <v>5713</v>
       </c>
       <c r="H24" s="17">
-        <v>2053</v>
+        <v>321371</v>
       </c>
       <c r="I24" s="17">
-        <v>5713</v>
+        <v>187669</v>
       </c>
       <c r="J24" s="17">
-        <v>321371</v>
+        <v>801675</v>
       </c>
       <c r="K24" s="17">
-        <v>185108</v>
+        <v>1204640</v>
       </c>
       <c r="L24" s="17">
-        <v>801675</v>
+        <v>1159019</v>
       </c>
       <c r="M24" s="17">
-        <v>1204640</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>305280</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>-109</v>
+        <v>19</v>
       </c>
       <c r="E25" s="13">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F25" s="13">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G25" s="13">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="H25" s="13">
-        <v>2</v>
+        <v>268</v>
       </c>
       <c r="I25" s="13">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="J25" s="13">
-        <v>268</v>
+        <v>668</v>
       </c>
       <c r="K25" s="13">
-        <v>154</v>
+        <v>1004</v>
       </c>
       <c r="L25" s="13">
-        <v>668</v>
+        <v>966</v>
       </c>
       <c r="M25" s="13">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1398,43 +1396,43 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>-109</v>
+        <v>19</v>
       </c>
       <c r="E27" s="13">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F27" s="13">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G27" s="13">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="H27" s="13">
-        <v>2</v>
+        <v>268</v>
       </c>
       <c r="I27" s="13">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="J27" s="13">
-        <v>268</v>
+        <v>668</v>
       </c>
       <c r="K27" s="13">
-        <v>154</v>
+        <v>1004</v>
       </c>
       <c r="L27" s="13">
-        <v>668</v>
+        <v>966</v>
       </c>
       <c r="M27" s="13">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
